--- a/Model Comparison.xlsx
+++ b/Model Comparison.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="2415" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="2040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wine Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Titanic Dataset" sheetId="2" r:id="rId2"/>
+    <sheet name="Income Dataset" sheetId="3" r:id="rId2"/>
+    <sheet name="Titanic Dataset" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Model</t>
   </si>
@@ -115,6 +116,18 @@
   </si>
   <si>
     <t>learning rate: 0.005</t>
+  </si>
+  <si>
+    <t>kernel: linear</t>
+  </si>
+  <si>
+    <t>number of neighbors: 10</t>
+  </si>
+  <si>
+    <t>hidden layer size: 3</t>
+  </si>
+  <si>
+    <t>learning rate: 0.01</t>
   </si>
 </sst>
 </file>
@@ -489,7 +502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,8 +677,193 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H2" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Model Comparison.xlsx
+++ b/Model Comparison.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Wine Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Income Dataset" sheetId="3" r:id="rId2"/>
-    <sheet name="Titanic Dataset" sheetId="2" r:id="rId3"/>
+    <sheet name="Titanic Dataset" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>Model</t>
   </si>
@@ -128,6 +128,69 @@
   </si>
   <si>
     <t>learning rate: 0.01</t>
+  </si>
+  <si>
+    <t>Final Runtime in s</t>
+  </si>
+  <si>
+    <t>Bias/Variance</t>
+  </si>
+  <si>
+    <t>High Variance</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Get more training examples</t>
+  </si>
+  <si>
+    <t>Try a smaller set of features</t>
+  </si>
+  <si>
+    <t>Incrase a regularization parameter to increase the cost of more complicated models to prevent overfitting</t>
+  </si>
+  <si>
+    <t>High Bias</t>
+  </si>
+  <si>
+    <t>Get more features for existing training examples</t>
+  </si>
+  <si>
+    <t>Run time</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>51 min</t>
+  </si>
+  <si>
+    <t>5 hours and 16 min</t>
+  </si>
+  <si>
+    <t>9 min</t>
+  </si>
+  <si>
+    <t>11 min</t>
+  </si>
+  <si>
+    <t>4 min</t>
+  </si>
+  <si>
+    <t>49 min</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>24 min</t>
   </si>
 </sst>
 </file>
@@ -139,7 +202,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,12 +234,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,11 +263,18 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -498,26 +591,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +637,15 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -562,8 +664,18 @@
       <c r="H2" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>899</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4">
+        <f>I2/60</f>
+        <v>14.983333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -585,8 +697,18 @@
       <c r="H3" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>3049</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K6" si="0">I3/60</f>
+        <v>50.81666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -608,8 +730,26 @@
       <c r="G4" s="1">
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="2">
+        <f>60*60*5.26</f>
+        <v>18936</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>315.60000000000002</v>
+      </c>
+      <c r="L4" s="4">
+        <f>K4/60</f>
+        <v>5.2600000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -634,8 +774,18 @@
       <c r="H5" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>541</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0166666666666675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -654,8 +804,18 @@
       <c r="H6" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>683</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>11.383333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -664,6 +824,112 @@
       </c>
       <c r="G8" s="1">
         <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -674,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,14 +951,15 @@
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +984,12 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -737,8 +1008,15 @@
       <c r="H2" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4">
+        <f>H2/60</f>
+        <v>3.6166666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -760,8 +1038,15 @@
       <c r="H3" s="2">
         <v>2916</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J6" si="0">H3/60</f>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -786,8 +1071,19 @@
       <c r="H4" s="2">
         <v>7065</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>117.75</v>
+      </c>
+      <c r="K4" s="4">
+        <f>J4/60</f>
+        <v>1.9624999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -812,8 +1108,15 @@
       <c r="H5" s="2">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5166666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -832,14 +1135,21 @@
       <c r="H6" s="2">
         <v>1456</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>24.266666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -851,6 +1161,117 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8">
+        <f>G2</f>
+        <v>0.83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" ref="B19:B22" si="1">G3</f>
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -859,11 +1280,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,9 +1297,10 @@
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +1325,12 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1349,11 @@
       <c r="H2" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -946,8 +1375,11 @@
       <c r="H3">
         <v>906</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -972,8 +1404,11 @@
       <c r="H4" s="2">
         <v>3055</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -998,8 +1433,11 @@
       <c r="H5" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1018,14 +1456,17 @@
       <c r="H6" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1037,6 +1478,46 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
